--- a/data/group-c-3.xlsx
+++ b/data/group-c-3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nirmal/Documents/ML_DS/ml_dsc_cell/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nirmal/Documents/data_science/microDSC_error_prediction_ANN/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A17A0E09-B0F6-BD4F-9B64-4ACAE92ACF23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{831F32B4-BF48-7944-ADF6-10DBB730EA2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="16380" windowHeight="8200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,14 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>r</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -84,7 +77,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -372,7 +365,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -382,8 +375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="85" zoomScaleNormal="181" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:K51"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="181" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -416,11 +409,11 @@
       <c r="I1">
         <v>1.3151060000000001</v>
       </c>
-      <c r="J1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" t="s">
-        <v>1</v>
+      <c r="J1">
+        <v>0.5</v>
+      </c>
+      <c r="K1">
+        <v>0.6</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
@@ -455,7 +448,7 @@
         <v>0.5</v>
       </c>
       <c r="K2">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
@@ -490,7 +483,7 @@
         <v>0.5</v>
       </c>
       <c r="K3">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
@@ -525,7 +518,7 @@
         <v>0.5</v>
       </c>
       <c r="K4">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
@@ -560,7 +553,7 @@
         <v>0.5</v>
       </c>
       <c r="K5">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
@@ -595,7 +588,7 @@
         <v>0.5</v>
       </c>
       <c r="K6">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
@@ -630,7 +623,7 @@
         <v>0.5</v>
       </c>
       <c r="K7">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
@@ -665,7 +658,7 @@
         <v>0.5</v>
       </c>
       <c r="K8">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
@@ -700,7 +693,7 @@
         <v>0.5</v>
       </c>
       <c r="K9">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
@@ -735,7 +728,7 @@
         <v>0.5</v>
       </c>
       <c r="K10">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
@@ -770,7 +763,7 @@
         <v>0.5</v>
       </c>
       <c r="K11">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
@@ -805,7 +798,7 @@
         <v>0.5</v>
       </c>
       <c r="K12">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
@@ -840,7 +833,7 @@
         <v>0.5</v>
       </c>
       <c r="K13">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
@@ -875,7 +868,7 @@
         <v>0.5</v>
       </c>
       <c r="K14">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.15">
@@ -910,7 +903,7 @@
         <v>0.5</v>
       </c>
       <c r="K15">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.15">
@@ -945,7 +938,7 @@
         <v>0.5</v>
       </c>
       <c r="K16">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.15">
@@ -980,7 +973,7 @@
         <v>0.5</v>
       </c>
       <c r="K17">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.15">
@@ -1015,7 +1008,7 @@
         <v>0.5</v>
       </c>
       <c r="K18">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.15">
@@ -1050,7 +1043,7 @@
         <v>0.5</v>
       </c>
       <c r="K19">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.15">
@@ -1085,7 +1078,7 @@
         <v>0.5</v>
       </c>
       <c r="K20">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.15">
@@ -1120,7 +1113,7 @@
         <v>0.5</v>
       </c>
       <c r="K21">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.15">
@@ -1155,7 +1148,7 @@
         <v>0.5</v>
       </c>
       <c r="K22">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.15">
@@ -1190,7 +1183,7 @@
         <v>0.5</v>
       </c>
       <c r="K23">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.15">
@@ -1225,7 +1218,7 @@
         <v>0.5</v>
       </c>
       <c r="K24">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.15">
@@ -1260,7 +1253,7 @@
         <v>0.5</v>
       </c>
       <c r="K25">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.15">
@@ -1295,7 +1288,7 @@
         <v>0.5</v>
       </c>
       <c r="K26">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.15">
@@ -1330,7 +1323,7 @@
         <v>0.5</v>
       </c>
       <c r="K27">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.15">
@@ -1365,7 +1358,7 @@
         <v>0.5</v>
       </c>
       <c r="K28">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.15">
@@ -1400,7 +1393,7 @@
         <v>0.5</v>
       </c>
       <c r="K29">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.15">
@@ -1435,7 +1428,7 @@
         <v>0.5</v>
       </c>
       <c r="K30">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.15">
@@ -1470,7 +1463,7 @@
         <v>0.5</v>
       </c>
       <c r="K31">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.15">
@@ -1505,7 +1498,7 @@
         <v>0.5</v>
       </c>
       <c r="K32">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.15">
@@ -1540,7 +1533,7 @@
         <v>0.5</v>
       </c>
       <c r="K33">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.15">
@@ -1575,7 +1568,7 @@
         <v>0.5</v>
       </c>
       <c r="K34">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.15">
@@ -1610,7 +1603,7 @@
         <v>0.5</v>
       </c>
       <c r="K35">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.15">
@@ -1645,7 +1638,7 @@
         <v>0.5</v>
       </c>
       <c r="K36">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.15">
@@ -1680,7 +1673,7 @@
         <v>0.5</v>
       </c>
       <c r="K37">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.15">
@@ -1715,7 +1708,7 @@
         <v>0.5</v>
       </c>
       <c r="K38">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.15">
@@ -1750,7 +1743,7 @@
         <v>0.5</v>
       </c>
       <c r="K39">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.15">
@@ -1785,7 +1778,7 @@
         <v>0.5</v>
       </c>
       <c r="K40">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.15">
@@ -1820,7 +1813,7 @@
         <v>0.5</v>
       </c>
       <c r="K41">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.15">
@@ -1855,7 +1848,7 @@
         <v>0.5</v>
       </c>
       <c r="K42">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.15">
@@ -1890,7 +1883,7 @@
         <v>0.5</v>
       </c>
       <c r="K43">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.15">
@@ -1925,7 +1918,7 @@
         <v>0.5</v>
       </c>
       <c r="K44">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.15">
@@ -1960,7 +1953,7 @@
         <v>0.5</v>
       </c>
       <c r="K45">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.15">
@@ -1995,7 +1988,7 @@
         <v>0.5</v>
       </c>
       <c r="K46">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.15">
@@ -2030,7 +2023,7 @@
         <v>0.5</v>
       </c>
       <c r="K47">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.15">
@@ -2065,7 +2058,7 @@
         <v>0.5</v>
       </c>
       <c r="K48">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.15">
@@ -2100,7 +2093,7 @@
         <v>0.5</v>
       </c>
       <c r="K49">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.15">
@@ -2135,7 +2128,7 @@
         <v>0.5</v>
       </c>
       <c r="K50">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.15">
@@ -2170,7 +2163,7 @@
         <v>0.5</v>
       </c>
       <c r="K51">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
